--- a/Record_6900_Class.xlsx
+++ b/Record_6900_Class.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bio-user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bio-user\Documents\GitHub\Class-Exercise-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -427,9 +427,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -438,7 +438,7 @@
     <col min="1" max="1" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +484,14 @@
       <c r="O1" s="2">
         <v>43376</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="2">
+        <v>43381</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>43383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -525,8 +531,14 @@
       <c r="M2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,8 +578,14 @@
       <c r="M3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -607,8 +625,14 @@
       <c r="M4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,8 +672,14 @@
       <c r="M5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -689,8 +719,14 @@
       <c r="M6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -728,6 +764,12 @@
         <v>8</v>
       </c>
       <c r="M7" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -742,7 +784,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,6 +843,9 @@
       <c r="E2">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -818,6 +863,9 @@
       <c r="E3">
         <v>10</v>
       </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -835,6 +883,9 @@
       <c r="E4">
         <v>9</v>
       </c>
+      <c r="F4">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -852,6 +903,9 @@
       <c r="E5">
         <v>9.5</v>
       </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -869,6 +923,9 @@
       <c r="E6">
         <v>10</v>
       </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -885,6 +942,9 @@
       </c>
       <c r="E7">
         <v>9.5</v>
+      </c>
+      <c r="F7">
+        <v>8.5</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -901,7 +961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
